--- a/medicine/Maladie à coronavirus 2019/Pandémie_de_Covid-19_au_Belize/Pandémie_de_Covid-19_au_Belize.xlsx
+++ b/medicine/Maladie à coronavirus 2019/Pandémie_de_Covid-19_au_Belize/Pandémie_de_Covid-19_au_Belize.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Pand%C3%A9mie_de_Covid-19_au_Belize</t>
+          <t>Pandémie_de_Covid-19_au_Belize</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La pandémie de Covid-19 est une crise sanitaire majeure provoquée par une maladie infectieuse émergente apparue fin 2019 en Chine continentale, la maladie à coronavirus 2019, dont l'agent pathogène est le SARS-CoV-2. Ce virus est à l'origine d'une pandémie[note 1], déclarée le 11 mars 2020 par l'Organisation mondiale de la santé. 
 La pandémie de Covid-19 au Belize démarre officiellement le 23 mars 2020. À la date du 24 octobre 2022, le bilan est de 687 morts.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Pand%C3%A9mie_de_Covid-19_au_Belize</t>
+          <t>Pandémie_de_Covid-19_au_Belize</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,10 +524,12 @@
           <t>Contexte</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le 12 janvier 2020, l'Organisation mondiale de la santé (OMS) a confirmé qu'un nouveau coronavirus était à l'origine d'une maladie respiratoire chez un groupe de personnes de la ville de Wuhan, dans la province du Hubei, en Chine, qui a été signalée à l'OMS le 31 décembre 2019[2],[3]. 
-Le taux de létalité lié au Covid-19 a été beaucoup plus faible que le SRAS de 2003[4],[5], mais la transmission a été significativement plus élevée, avec un nombre total de décès important[6]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le 12 janvier 2020, l'Organisation mondiale de la santé (OMS) a confirmé qu'un nouveau coronavirus était à l'origine d'une maladie respiratoire chez un groupe de personnes de la ville de Wuhan, dans la province du Hubei, en Chine, qui a été signalée à l'OMS le 31 décembre 2019,. 
+Le taux de létalité lié au Covid-19 a été beaucoup plus faible que le SRAS de 2003 mais la transmission a été significativement plus élevée, avec un nombre total de décès important. 
 </t>
         </is>
       </c>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Pand%C3%A9mie_de_Covid-19_au_Belize</t>
+          <t>Pandémie_de_Covid-19_au_Belize</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,13 +560,14 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Mars 2020
-Le premier cas du pays a été annoncé le 23 mars[7], une Bélizienne qui est revenue à San Pedro Town de Los Angeles, en Californie[8],[9],[10]. Le deuxième cas a été annoncé le 25 mars. Ils ont eu un contact immédiat avec le premier cas[11]. 
-Le troisième cas au Belize a été annoncé le 29 mars par un voyageur revenant à Belize City de New York[12]. 
-Avril 2020
-Le 5e cas confirmé de coronavirus a été confirmé chez un étudiant bélizien revenu de Floride aux États-Unis[13]. Le premier mort est déclaré le 5 avril[14].
-Mai 2020
-Le gouvernement du Belize annonce le 5 mai 2020 que sur les 18 personnes atteintes du Covid-19, 2 en sont décédées tandis que les 16 autres ont été guéries[15].
+          <t>Mars 2020</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le premier cas du pays a été annoncé le 23 mars, une Bélizienne qui est revenue à San Pedro Town de Los Angeles, en Californie. Le deuxième cas a été annoncé le 25 mars. Ils ont eu un contact immédiat avec le premier cas. 
+Le troisième cas au Belize a été annoncé le 29 mars par un voyageur revenant à Belize City de New York. 
 </t>
         </is>
       </c>
@@ -563,7 +578,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Pand%C3%A9mie_de_Covid-19_au_Belize</t>
+          <t>Pandémie_de_Covid-19_au_Belize</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -578,19 +593,18 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Mesures de prévention</t>
+          <t>Chronologie</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">À la lumière des récents événements, le Premier ministre Dean Barrow a déclaré l'état d'urgence pour San Pedro. Les habitants d'Ambergris Caye ont été mis en quarantaine. Seuls  certains travailleurs ont été autorisés à effectuer les tâches les plus essentielles. Le ministère de la Santé a recherché toutes les personnes qui auraient pu être en contact avec la femme bélizienne dont le test au Covid-19 s'est révélé positif[16]. 
-Le Premier ministre Dean Barrow avait également fermé les écoles le 20 mars qui ont repris  le 20 avril en attendant que la situation change. Il a interdit le rassemblement public de plus de 25 personnes et il a fermé toutes les frontières. Tous les vols ont été cloués au sol le 23 mars. Seule le fret a pu franchir la frontière et accoster par voie maritime. Pendant l'épidémie, les Béliziens ont toujours autorisés à revenir au Belize, mais les résidents n'ont pas été autorisés à quitter le pays, sauf en cas d'urgence[17],[18]. 
-Le ministre de la Santé a demandé à toute personne présentant des symptômes pseudo-grippaux de rester à la maison, de s'isoler et d'appeler la hotline pour plus d'informations au 0-800-MOH-CARE[réf. nécessaire]. 
-Le 30 mars, un état d'urgence a été annoncé dans tout le pays, ainsi qu'un couvre-feu à de 20 h à 5 h du matin[19]. 
-Début avril, le gouvernement a annoncé que les frontières seraient fermées à tous les voyageurs, y compris aux ressortissants béliziens, sauf en cas d'urgence[20],[21]. D'autres restrictions aux voyages, notamment les quarantaines, avaient déjà été appliquées en mars[22]. 
-Le gouvernement a déclaré une déclaration d'urgence d'un couvre-feu à l'échelle nationale. Le couvre-feu a été fixé du 1er avril au 30 avril. Le couvre-feu a été de 20h à 5h[23]. 
-Dans un rapport daté du 24 avril 2020, le Belize a fermé ses ports d'entrée, à l'exception de Santa Elena Border et de l'aéroport international Philip Goldson, qui sont restés ouverts selon le ministère de la Santé du Belize. Les navires de charge ont été autorisés à utiliser tous les ports d'entrée. 
-Les étrangers qui ont voyagé dans les pays européens, Hong Kong, Chine, Iran, Japon, Corée du Sud au cours des 30 derniers jours n'ont pas été autorisés à entrer[24]. 
+          <t>Avril 2020</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le 5e cas confirmé de coronavirus a été confirmé chez un étudiant bélizien revenu de Floride aux États-Unis. Le premier mort est déclaré le 5 avril.
 </t>
         </is>
       </c>
@@ -601,7 +615,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Pand%C3%A9mie_de_Covid-19_au_Belize</t>
+          <t>Pandémie_de_Covid-19_au_Belize</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -616,10 +630,89 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Chronologie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Mai 2020</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le gouvernement du Belize annonce le 5 mai 2020 que sur les 18 personnes atteintes du Covid-19, 2 en sont décédées tandis que les 16 autres ont été guéries.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Pandémie_de_Covid-19_au_Belize</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Maladie à coronavirus 2019/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pand%C3%A9mie_de_Covid-19_au_Belize</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Mesures de prévention</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">À la lumière des récents événements, le Premier ministre Dean Barrow a déclaré l'état d'urgence pour San Pedro. Les habitants d'Ambergris Caye ont été mis en quarantaine. Seuls  certains travailleurs ont été autorisés à effectuer les tâches les plus essentielles. Le ministère de la Santé a recherché toutes les personnes qui auraient pu être en contact avec la femme bélizienne dont le test au Covid-19 s'est révélé positif. 
+Le Premier ministre Dean Barrow avait également fermé les écoles le 20 mars qui ont repris  le 20 avril en attendant que la situation change. Il a interdit le rassemblement public de plus de 25 personnes et il a fermé toutes les frontières. Tous les vols ont été cloués au sol le 23 mars. Seule le fret a pu franchir la frontière et accoster par voie maritime. Pendant l'épidémie, les Béliziens ont toujours autorisés à revenir au Belize, mais les résidents n'ont pas été autorisés à quitter le pays, sauf en cas d'urgence,. 
+Le ministre de la Santé a demandé à toute personne présentant des symptômes pseudo-grippaux de rester à la maison, de s'isoler et d'appeler la hotline pour plus d'informations au 0-800-MOH-CARE[réf. nécessaire]. 
+Le 30 mars, un état d'urgence a été annoncé dans tout le pays, ainsi qu'un couvre-feu à de 20 h à 5 h du matin. 
+Début avril, le gouvernement a annoncé que les frontières seraient fermées à tous les voyageurs, y compris aux ressortissants béliziens, sauf en cas d'urgence,. D'autres restrictions aux voyages, notamment les quarantaines, avaient déjà été appliquées en mars. 
+Le gouvernement a déclaré une déclaration d'urgence d'un couvre-feu à l'échelle nationale. Le couvre-feu a été fixé du 1er avril au 30 avril. Le couvre-feu a été de 20h à 5h. 
+Dans un rapport daté du 24 avril 2020, le Belize a fermé ses ports d'entrée, à l'exception de Santa Elena Border et de l'aéroport international Philip Goldson, qui sont restés ouverts selon le ministère de la Santé du Belize. Les navires de charge ont été autorisés à utiliser tous les ports d'entrée. 
+Les étrangers qui ont voyagé dans les pays européens, Hong Kong, Chine, Iran, Japon, Corée du Sud au cours des 30 derniers jours n'ont pas été autorisés à entrer. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Pandémie_de_Covid-19_au_Belize</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Maladie à coronavirus 2019/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pand%C3%A9mie_de_Covid-19_au_Belize</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Statistiques</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
